--- a/Assets/ArtRes/Excel/SceneData.xlsx
+++ b/Assets/ArtRes/Excel/SceneData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21140" windowHeight="7680"/>
+    <workbookView windowWidth="26390" windowHeight="11320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>timeLimit</t>
+  </si>
+  <si>
+    <t>monsterId</t>
   </si>
   <si>
     <t>UI/SignIn1</t>
@@ -251,12 +254,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -577,7 +586,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,16 +610,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -619,89 +628,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,6 +718,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,13 +1071,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F8" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.8181818181818" style="1" customWidth="1"/>
@@ -1077,32 +1089,35 @@
     <col min="8" max="8" width="13.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -1110,16 +1125,19 @@
       <c r="E2" s="1">
         <v>50</v>
       </c>
+      <c r="F2" s="1">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
@@ -1127,16 +1145,19 @@
       <c r="E3" s="1">
         <v>20</v>
       </c>
+      <c r="F3" s="1">
+        <v>1002</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>200</v>
@@ -1144,16 +1165,19 @@
       <c r="E4" s="1">
         <v>30</v>
       </c>
+      <c r="F4" s="1">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1">
         <v>200</v>
@@ -1161,16 +1185,19 @@
       <c r="E5" s="1">
         <v>30</v>
       </c>
+      <c r="F5" s="1">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>300</v>
@@ -1178,16 +1205,19 @@
       <c r="E6" s="1">
         <v>50</v>
       </c>
+      <c r="F6" s="1">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>300</v>
@@ -1195,22 +1225,28 @@
       <c r="E7" s="1">
         <v>50</v>
       </c>
+      <c r="F7" s="1">
+        <v>1006</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
         <v>400</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1007</v>
       </c>
     </row>
   </sheetData>
